--- a/q1_dataFiles/10_Rangtests_Haustiere.xlsx
+++ b/q1_dataFiles/10_Rangtests_Haustiere.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engelmann6\Dropbox\QuantiWebsite\q1_dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCDCBE2-D027-4EA7-B72B-09899D506722}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5A1823-96CC-4472-BB04-9E1B47649BF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{017CEACB-E51C-404E-866F-672DBC426B57}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="3" xr2:uid="{017CEACB-E51C-404E-866F-672DBC426B57}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Daten_unabh" sheetId="2" r:id="rId1"/>
+    <sheet name="Lösung_unabh" sheetId="1" r:id="rId2"/>
+    <sheet name="Daten_abh" sheetId="3" r:id="rId3"/>
+    <sheet name="Lösung_abh" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="40">
   <si>
     <t>Hunde</t>
   </si>
@@ -86,6 +89,66 @@
   <si>
     <t>Wkt., dass ein Wert in der Katzengruppe niedriger ist als in der Hundegruppe</t>
   </si>
+  <si>
+    <t>Rating_pre</t>
+  </si>
+  <si>
+    <t>Rating_post</t>
+  </si>
+  <si>
+    <t>Differenz</t>
+  </si>
+  <si>
+    <t>alle</t>
+  </si>
+  <si>
+    <t>Ratings vor Lockdown</t>
+  </si>
+  <si>
+    <t>Ratings nach Lockdown</t>
+  </si>
+  <si>
+    <t>Diff Absolut</t>
+  </si>
+  <si>
+    <t>Rang Diff Abs pro Gruppe</t>
+  </si>
+  <si>
+    <t>Rang Diff Abs alle</t>
+  </si>
+  <si>
+    <t>Rang Diff + alle</t>
+  </si>
+  <si>
+    <t>Rang + pro Gruppe</t>
+  </si>
+  <si>
+    <t>Rangsumme der positiven Differenzen</t>
+  </si>
+  <si>
+    <t>Rangsumme alle Differenzen</t>
+  </si>
+  <si>
+    <t>Erwartete positive Rangsumme bei H0</t>
+  </si>
+  <si>
+    <t>Geschätze Streuung der positiven Rangsumme</t>
+  </si>
+  <si>
+    <t>z-Werte (Abweichung empirische vs. erwartete RS / Streuung)</t>
+  </si>
+  <si>
+    <t>kritische z-Werte, zweiseitige Testung und alpha = 0.05</t>
+  </si>
+  <si>
+    <t>empirischer z-Wert außerhalb von +/- kritischer z-Wert?</t>
+  </si>
+  <si>
+    <t>p-Werte</t>
+  </si>
+  <si>
+    <t>Effektstärke Gamma</t>
+  </si>
 </sst>
 </file>
 
@@ -119,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -127,14 +190,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -238,7 +312,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$G$4</c:f>
+              <c:f>Lösung_unabh!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -316,7 +390,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$F$5:$F$8</c:f>
+              <c:f>Lösung_unabh!$F$5:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -337,7 +411,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$G$5:$G$8</c:f>
+              <c:f>Lösung_unabh!$G$5:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -367,7 +441,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$H$4</c:f>
+              <c:f>Lösung_unabh!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -445,7 +519,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$F$5:$F$8</c:f>
+              <c:f>Lösung_unabh!$F$5:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -466,7 +540,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$H$5:$H$8</c:f>
+              <c:f>Lösung_unabh!$H$5:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -797,6 +871,1382 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Verteilung Rating vor Lockdown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lösung_abh!$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>alle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lösung_abh!$L$7:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lösung_abh!$M$7:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B975-4E31-8ED5-6DE1EFBC196F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lösung_abh!$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hunde</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lösung_abh!$L$7:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lösung_abh!$N$7:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B975-4E31-8ED5-6DE1EFBC196F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lösung_abh!$O$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Katzen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lösung_abh!$L$7:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lösung_abh!$O$7:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B975-4E31-8ED5-6DE1EFBC196F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1020222991"/>
+        <c:axId val="743607823"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1020222991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Antwortoption</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="743607823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="743607823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Häufigkeit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1020222991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Verteilung Rating nach Lockdown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lösung_abh!$T$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>alle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lösung_abh!$S$7:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lösung_abh!$T$7:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E48-4F35-8C92-14B086BBB5F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lösung_abh!$U$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hunde</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lösung_abh!$S$7:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lösung_abh!$U$7:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E48-4F35-8C92-14B086BBB5F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lösung_abh!$V$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Katzen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lösung_abh!$S$7:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lösung_abh!$V$7:$V$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2E48-4F35-8C92-14B086BBB5F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1024684575"/>
+        <c:axId val="821120447"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1024684575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Antwortoption</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="821120447"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="821120447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Häufigkeit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1024684575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -837,7 +2287,1093 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1381,6 +3917,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E2A7C6-4919-48D5-8C7E-D88FB71FE5F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AACE5BE-2DCB-4311-8401-2A182F35513F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1677,11 +4290,592 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E49BBC-030C-47AE-A495-F495DF154710}">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection sqref="A1:C51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C51">
+    <sortCondition ref="C2:C51"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC425308-6C85-44CE-BABE-063317C151AF}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1711,7 +4905,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <f>_xlfn.RANK.AVG(C2,$C$2:$C$51,1)</f>
+        <f t="shared" ref="D2:D33" si="0">_xlfn.RANK.AVG(C2,$C$2:$C$51,1)</f>
         <v>33</v>
       </c>
     </row>
@@ -1726,7 +4920,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <f>_xlfn.RANK.AVG(C3,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -1741,7 +4935,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <f>_xlfn.RANK.AVG(C4,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1768,7 +4962,7 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <f>_xlfn.RANK.AVG(C5,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="F5">
@@ -1803,7 +4997,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <f>_xlfn.RANK.AVG(C6,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>44.5</v>
       </c>
       <c r="F6">
@@ -1841,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <f>_xlfn.RANK.AVG(C7,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
       <c r="F7">
@@ -1867,7 +5061,7 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <f>_xlfn.RANK.AVG(C8,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F8">
@@ -1899,7 +5093,7 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <f>_xlfn.RANK.AVG(C9,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>44.5</v>
       </c>
       <c r="M9">
@@ -1920,7 +5114,7 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <f>_xlfn.RANK.AVG(C10,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -1935,7 +5129,7 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <f>_xlfn.RANK.AVG(C11,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>44.5</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -1953,7 +5147,7 @@
         <v>3</v>
       </c>
       <c r="D12">
-        <f>_xlfn.RANK.AVG(C12,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="M12">
@@ -1972,7 +5166,7 @@
         <v>3</v>
       </c>
       <c r="D13">
-        <f>_xlfn.RANK.AVG(C13,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
@@ -1987,7 +5181,7 @@
         <v>4</v>
       </c>
       <c r="D14">
-        <f>_xlfn.RANK.AVG(C14,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>44.5</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -2005,7 +5199,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <f>_xlfn.RANK.AVG(C15,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="M15">
@@ -2024,7 +5218,7 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <f>_xlfn.RANK.AVG(C16,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
@@ -2039,7 +5233,7 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <f>_xlfn.RANK.AVG(C17,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="M17" s="1" t="s">
@@ -2057,7 +5251,7 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <f>_xlfn.RANK.AVG(C18,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>44.5</v>
       </c>
       <c r="M18">
@@ -2076,7 +5270,7 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <f>_xlfn.RANK.AVG(C19,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
     </row>
@@ -2091,7 +5285,7 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <f>_xlfn.RANK.AVG(C20,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="M20" s="1" t="s">
@@ -2109,7 +5303,7 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <f>_xlfn.RANK.AVG(C21,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="M21">
@@ -2128,7 +5322,7 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <f>_xlfn.RANK.AVG(C22,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>44.5</v>
       </c>
     </row>
@@ -2143,7 +5337,7 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <f>_xlfn.RANK.AVG(C23,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>44.5</v>
       </c>
       <c r="M23" s="1" t="s">
@@ -2161,7 +5355,7 @@
         <v>4</v>
       </c>
       <c r="D24">
-        <f>_xlfn.RANK.AVG(C24,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>44.5</v>
       </c>
       <c r="M24" s="2">
@@ -2180,7 +5374,7 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <f>_xlfn.RANK.AVG(C25,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>44.5</v>
       </c>
     </row>
@@ -2195,7 +5389,7 @@
         <v>3</v>
       </c>
       <c r="D26">
-        <f>_xlfn.RANK.AVG(C26,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="M26" s="1" t="s">
@@ -2213,7 +5407,7 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <f>_xlfn.RANK.AVG(C27,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
       <c r="M27">
@@ -2232,7 +5426,7 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <f>_xlfn.RANK.AVG(C28,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -2247,7 +5441,7 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <f>_xlfn.RANK.AVG(C29,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="M29" t="s">
@@ -2265,7 +5459,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <f>_xlfn.RANK.AVG(C30,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
     </row>
@@ -2280,7 +5474,7 @@
         <v>3</v>
       </c>
       <c r="D31">
-        <f>_xlfn.RANK.AVG(C31,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
@@ -2295,7 +5489,7 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <f>_xlfn.RANK.AVG(C32,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>44.5</v>
       </c>
     </row>
@@ -2310,7 +5504,7 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <f>_xlfn.RANK.AVG(C33,$C$2:$C$51,1)</f>
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
     </row>
@@ -2325,7 +5519,7 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <f>_xlfn.RANK.AVG(C34,$C$2:$C$51,1)</f>
+        <f t="shared" ref="D34:D65" si="1">_xlfn.RANK.AVG(C34,$C$2:$C$51,1)</f>
         <v>33</v>
       </c>
     </row>
@@ -2340,7 +5534,7 @@
         <v>3</v>
       </c>
       <c r="D35">
-        <f>_xlfn.RANK.AVG(C35,$C$2:$C$51,1)</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
@@ -2355,7 +5549,7 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <f>_xlfn.RANK.AVG(C36,$C$2:$C$51,1)</f>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
     </row>
@@ -2370,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <f>_xlfn.RANK.AVG(C37,$C$2:$C$51,1)</f>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
     </row>
@@ -2385,7 +5579,7 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <f>_xlfn.RANK.AVG(C38,$C$2:$C$51,1)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -2400,7 +5594,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <f>_xlfn.RANK.AVG(C39,$C$2:$C$51,1)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -2415,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <f>_xlfn.RANK.AVG(C40,$C$2:$C$51,1)</f>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
     </row>
@@ -2430,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <f>_xlfn.RANK.AVG(C41,$C$2:$C$51,1)</f>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
     </row>
@@ -2445,7 +5639,7 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <f>_xlfn.RANK.AVG(C42,$C$2:$C$51,1)</f>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
     </row>
@@ -2460,7 +5654,7 @@
         <v>4</v>
       </c>
       <c r="D43">
-        <f>_xlfn.RANK.AVG(C43,$C$2:$C$51,1)</f>
+        <f t="shared" si="1"/>
         <v>44.5</v>
       </c>
     </row>
@@ -2475,7 +5669,7 @@
         <v>4</v>
       </c>
       <c r="D44">
-        <f>_xlfn.RANK.AVG(C44,$C$2:$C$51,1)</f>
+        <f t="shared" si="1"/>
         <v>44.5</v>
       </c>
     </row>
@@ -2490,7 +5684,7 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <f>_xlfn.RANK.AVG(C45,$C$2:$C$51,1)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -2505,7 +5699,7 @@
         <v>3</v>
       </c>
       <c r="D46">
-        <f>_xlfn.RANK.AVG(C46,$C$2:$C$51,1)</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
@@ -2520,7 +5714,7 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <f>_xlfn.RANK.AVG(C47,$C$2:$C$51,1)</f>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
     </row>
@@ -2535,7 +5729,7 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <f>_xlfn.RANK.AVG(C48,$C$2:$C$51,1)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -2550,7 +5744,7 @@
         <v>2</v>
       </c>
       <c r="D49">
-        <f>_xlfn.RANK.AVG(C49,$C$2:$C$51,1)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -2565,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <f>_xlfn.RANK.AVG(C50,$C$2:$C$51,1)</f>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
     </row>
@@ -2580,8 +5774,3202 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <f>_xlfn.RANK.AVG(C51,$C$2:$C$51,1)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419457AA-FE12-4690-9B08-CCC79CBCF8A2}">
+  <dimension ref="A1:D51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>7</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB2815C-C45C-47EC-95A5-3E8B5137A0DB}">
+  <dimension ref="A1:AC51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AC39" sqref="AC39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="20.90625" customWidth="1"/>
+    <col min="8" max="8" width="24.1796875" customWidth="1"/>
+    <col min="9" max="9" width="17.7265625" customWidth="1"/>
+    <col min="10" max="10" width="20.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <f>D2-C2</f>
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <f>ABS(E2)</f>
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <f>_xlfn.RANK.AVG(F2,$F$2:$F$51,1)</f>
+        <v>42</v>
+      </c>
+      <c r="H2">
+        <f>_xlfn.RANK.AVG(F2,$F$2:$F$26,1)</f>
+        <v>19.5</v>
+      </c>
+      <c r="I2">
+        <f>IF(E2&gt;0,G2," ")</f>
+        <v>42</v>
+      </c>
+      <c r="J2">
+        <f>IF(E2&gt;0,H2," ")</f>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E51" si="0">D3-C3</f>
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F51" si="1">ABS(E3)</f>
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G51" si="2">_xlfn.RANK.AVG(F3,$F$2:$F$51,1)</f>
+        <v>42</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H26" si="3">_xlfn.RANK.AVG(F3,$F$2:$F$26,1)</f>
+        <v>19.5</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I51" si="4">IF(E3&gt;0,G3," ")</f>
+        <v>42</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J51" si="5">IF(E3&gt;0,H3," ")</f>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA6">
+        <f>SUM(I2:I51)</f>
+        <v>717</v>
+      </c>
+      <c r="AB6">
+        <f>SUM(J2:J26)</f>
+        <v>279</v>
+      </c>
+      <c r="AC6">
+        <f>SUM(J27:J51)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f>COUNTIF($C$2:$C$51,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>COUNTIF($C$2:$C$26,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f>COUNTIF($C$27:$C$51,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <f>COUNTIF($D$2:$D$51,1)</f>
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <f>COUNTIF($D$2:$D$26,1)</f>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f>COUNTIF($D$27:$D$51,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <f>COUNTIF($C$2:$C$51,2)</f>
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <f>COUNTIF($C$2:$C$26,2)</f>
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f>COUNTIF($C$27:$C$51,2)</f>
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <f>COUNTIF($D$2:$D$51,2)</f>
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <f>COUNTIF($D$2:$D$26,2)</f>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f>COUNTIF($D$27:$D$51,2)</f>
+        <v>3</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <f>COUNTIF($C$2:$C$51,3)</f>
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <f>COUNTIF($C$2:$C$26,3)</f>
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <f>COUNTIF($C$27:$C$51,3)</f>
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <f>COUNTIF($D$2:$D$51,3)</f>
+        <v>6</v>
+      </c>
+      <c r="U9">
+        <f>COUNTIF($D$2:$D$26,3)</f>
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <f>COUNTIF($D$27:$D$51,3)</f>
+        <v>4</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <f>COUNTIF($C$2:$C$51,4)</f>
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <f>COUNTIF($C$2:$C$26,4)</f>
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <f>COUNTIF($C$27:$C$51,4)</f>
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <f>COUNTIF($D$2:$D$51,4)</f>
+        <v>9</v>
+      </c>
+      <c r="U10">
+        <f>COUNTIF($D$2:$D$26,4)</f>
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <f>COUNTIF($D$27:$D$51,4)</f>
+        <v>7</v>
+      </c>
+      <c r="AA10">
+        <f>SUM(G2:G51)</f>
+        <v>1275</v>
+      </c>
+      <c r="AB10">
+        <f>SUM(H2:H26)</f>
+        <v>325</v>
+      </c>
+      <c r="AC10">
+        <f>SUM(H27:H51)</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <f>COUNTIF($C$2:$C$51,5)</f>
+        <v>15</v>
+      </c>
+      <c r="N11">
+        <f>COUNTIF($C$2:$C$26,5)</f>
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <f>COUNTIF($C$27:$C$51,5)</f>
+        <v>6</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <f>COUNTIF($D$2:$D$51,5)</f>
+        <v>5</v>
+      </c>
+      <c r="U11">
+        <f>COUNTIF($D$2:$D$26,5)</f>
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <f>COUNTIF($D$27:$D$51,5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="L12">
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <f>COUNTIF($C$2:$C$51,6)</f>
+        <v>9</v>
+      </c>
+      <c r="N12">
+        <f>COUNTIF($C$2:$C$26,6)</f>
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <f>COUNTIF($C$27:$C$51,6)</f>
+        <v>5</v>
+      </c>
+      <c r="S12">
+        <v>6</v>
+      </c>
+      <c r="T12">
+        <f>COUNTIF($D$2:$D$51,6)</f>
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <f>COUNTIF($D$2:$D$26,6)</f>
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <f>COUNTIF($D$27:$D$51,6)</f>
+        <v>3</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <f>COUNTIF($C$2:$C$51,7)</f>
+        <v>7</v>
+      </c>
+      <c r="N13">
+        <f>COUNTIF($C$2:$C$26,7)</f>
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <f>COUNTIF($C$27:$C$51,7)</f>
+        <v>4</v>
+      </c>
+      <c r="S13">
+        <v>7</v>
+      </c>
+      <c r="T13">
+        <f>COUNTIF($D$2:$D$51,7)</f>
+        <v>9</v>
+      </c>
+      <c r="U13">
+        <f>COUNTIF($D$2:$D$26,7)</f>
+        <v>7</v>
+      </c>
+      <c r="V13">
+        <f>COUNTIF($D$27:$D$51,7)</f>
+        <v>2</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>8.5</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>8.5</v>
+      </c>
+      <c r="L14">
+        <v>8</v>
+      </c>
+      <c r="M14">
+        <f>COUNTIF($C$2:$C$51,8)</f>
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <f>COUNTIF($C$2:$C$26,8)</f>
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <f>COUNTIF($C$27:$C$51,8)</f>
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>8</v>
+      </c>
+      <c r="T14">
+        <f>COUNTIF($D$2:$D$51,8)</f>
+        <v>7</v>
+      </c>
+      <c r="U14">
+        <f>COUNTIF($D$2:$D$26,8)</f>
+        <v>7</v>
+      </c>
+      <c r="V14">
+        <f>COUNTIF($D$27:$D$51,8)</f>
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <f>(50*51)/4</f>
+        <v>637.5</v>
+      </c>
+      <c r="AB14">
+        <f>(25*26)/4</f>
+        <v>162.5</v>
+      </c>
+      <c r="AC14">
+        <f>(25*26)/4</f>
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L15">
+        <v>9</v>
+      </c>
+      <c r="M15">
+        <f>COUNTIF($C$2:$C$51,9)</f>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>COUNTIF($C$2:$C$26,9)</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f>COUNTIF($C$27:$C$51,9)</f>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>9</v>
+      </c>
+      <c r="T15">
+        <f>COUNTIF($D$2:$D$51,9)</f>
+        <v>5</v>
+      </c>
+      <c r="U15">
+        <f>COUNTIF($D$2:$D$26,9)</f>
+        <v>4</v>
+      </c>
+      <c r="V15">
+        <f>COUNTIF($D$27:$D$51,9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>8.5</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>8.5</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="AA18" s="4">
+        <f>SQRT((50*51*(2*50+1))/24)</f>
+        <v>103.59174677550331</v>
+      </c>
+      <c r="AB18" s="4">
+        <f>SQRT((25*26*(2*25+1))/24)</f>
+        <v>37.165171868296262</v>
+      </c>
+      <c r="AC18" s="4">
+        <f>SQRT((25*26*(2*25+1))/24)</f>
+        <v>37.165171868296262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>8.5</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>8.5</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>8.5</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>17.5</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>17.5</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="AA22">
+        <f>(AA6-AA14)/AA18</f>
+        <v>0.76743565462108443</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" ref="AB22:AC22" si="6">(AB6-AB14)/AB18</f>
+        <v>3.1346552200228164</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="6"/>
+        <v>-2.3005409554673886</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>17.5</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>8.5</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AA25" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3">
+        <v>7</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="3"/>
+        <v>8.5</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="5"/>
+        <v>8.5</v>
+      </c>
+      <c r="AA26">
+        <f>_xlfn.NORM.S.INV(1-(0.05/2))</f>
+        <v>1.9599639845400536</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" ref="AB26:AC26" si="7">_xlfn.NORM.S.INV(1-(0.05/2))</f>
+        <v>1.9599639845400536</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="7"/>
+        <v>1.9599639845400536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <f>D27-C27</f>
+        <v>-2</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="H27">
+        <f>_xlfn.RANK.AVG(F27,$F$27:$F$51,1)</f>
+        <v>12.5</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28:H51" si="8">_xlfn.RANK.AVG(F28,$F$27:$F$51,1)</f>
+        <v>3.5</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AA29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AA30" t="str">
+        <f>IF(ABS(AA22)&gt;ABS(AA26),"ja","nein")</f>
+        <v>nein</v>
+      </c>
+      <c r="AB30" t="str">
+        <f t="shared" ref="AB30:AC30" si="9">IF(ABS(AB22)&gt;ABS(AB26),"ja","nein")</f>
+        <v>ja</v>
+      </c>
+      <c r="AC30" t="str">
+        <f t="shared" si="9"/>
+        <v>ja</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="8"/>
+        <v>12.5</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AA33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AA34">
+        <f>1-_xlfn.NORM.S.DIST(ABS(AA22),TRUE)</f>
+        <v>0.22141126828326718</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" ref="AB34:AC34" si="10">1-_xlfn.NORM.S.DIST(ABS(AB22),TRUE)</f>
+        <v>8.6028100789836692E-4</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="10"/>
+        <v>1.0708795885362887E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AA37" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="AA38">
+        <f>(COUNTIF(E2:E51,"&gt;0")/50)-0.5</f>
+        <v>-0.06</v>
+      </c>
+      <c r="AB38">
+        <f>(COUNTIF(E2:E26,"&gt;0")/25)-0.5</f>
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="AC38">
+        <f>(COUNTIF(E27:E51,"&gt;0")/25)-0.5</f>
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>7</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
   </sheetData>
